--- a/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0449824875182887</v>
+        <v>0.955017512481711</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.949001373212443</v>
+        <v>0.050998626787557</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">

--- a/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.806372340031676</v>
+        <v>0.993518344364968</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.92</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36</v>
+        <v>0.365</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0141820067596461</v>
+        <v>0.0406661295737444</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0120148026315789</v>
+        <v>0.0152881391792108</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0471615315618516</v>
+        <v>0.0653063317257669</v>
       </c>
       <c r="N2" t="n">
-        <v>3.93944632212391</v>
+        <v>11.1414053626697</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.955017512481711</v>
+        <v>0.643788875060667</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.210000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.207826100427344</v>
+        <v>0.153922804922506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004554009277945</v>
+        <v>-0.347680587409719</v>
       </c>
       <c r="M3" t="n">
-        <v>0.40641856948724</v>
+        <v>0.359472331984342</v>
       </c>
       <c r="N3" t="n">
-        <v>2.5313775935121</v>
+        <v>1.8589710739433</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.253508774251516</v>
+        <v>0.0449824875182887</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.074</v>
+        <v>0.0785</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0034015179417026</v>
+        <v>0.005103395759259</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0051636678587775</v>
+        <v>0.0001928836505708</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0071364183243529</v>
+        <v>0.0105515059183995</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5966458671657</v>
+        <v>6.50114109459755</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.973279829354384</v>
+        <v>0.872963383828828</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.857142857142857</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>262.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-67.5368244498096</v>
+        <v>-23.2150423728814</v>
       </c>
       <c r="L5" t="n">
-        <v>-132.419543606762</v>
+        <v>-66.77519899374499</v>
       </c>
       <c r="M5" t="n">
-        <v>-9.052017856589391</v>
+        <v>10.6839047314617</v>
       </c>
       <c r="N5" t="n">
-        <v>-20.2206061226975</v>
+        <v>-8.84382566585956</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -929,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.977052814054904</v>
+        <v>0.939205768256117</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0350877192982456</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H6" t="n">
-        <v>0.982456140350877</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.166257420511966</v>
+        <v>0.126092739490036</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0299843150334883</v>
+        <v>-0.0196580376571521</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.06392293187463111</v>
+        <v>-0.0435222417440898</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0050188372122655</v>
+        <v>-0.0028992497726925</v>
       </c>
       <c r="N6" t="n">
-        <v>-18.0348732352251</v>
+        <v>-15.5901424115744</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,31 +1028,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.417617292980301</v>
+        <v>0.971236564272545</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.862068965517241</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0435</v>
+        <v>0.04</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0009270304568527</v>
+        <v>-0.004969387755102</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0046900212616437</v>
+        <v>-0.0104357142857143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0059834359808159</v>
+        <v>-0.0006941016185985</v>
       </c>
       <c r="N7" t="n">
-        <v>2.13110449851217</v>
+        <v>-12.4234693877551</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.301924123033672</v>
+        <v>0.97269556738393</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H8" t="n">
         <v>0.931034482758621</v>
@@ -1131,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.627</v>
+        <v>0.608</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0106721180237877</v>
+        <v>-0.0430858093105525</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0335380749128709</v>
+        <v>-0.0749616218936508</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0715671913940866</v>
+        <v>-0.0111712340912962</v>
       </c>
       <c r="N8" t="n">
-        <v>1.70209218880187</v>
+        <v>-7.08648179449877</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.050998626787557</v>
+        <v>0.150355523574156</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.793103448275862</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.885</v>
+        <v>7.865</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0424493209749528</v>
+        <v>-0.0346520381594968</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.07025288878828539</v>
+        <v>-0.0702891196900986</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0129446718437319</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5383553706398569</v>
+        <v>-0.44058535485692</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.592828518591371</v>
+        <v>0.980765377456021</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.844827586206897</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.065</v>
+        <v>0.88</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0164157303370787</v>
+        <v>-0.0822124361372456</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0900700746401837</v>
+        <v>-0.146770709964562</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0603719008264463</v>
+        <v>-0.0189083199152397</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.54138313024213</v>
+        <v>-9.342322288323359</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1384,35 +1384,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.976730209576497</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>2.21</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.125474085193157</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.03844125008673</v>
+        <v>-0.185906084152965</v>
       </c>
       <c r="M11" t="n">
-        <v>1.53748014785266</v>
+        <v>-0.0242353145028697</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-5.67756041597997</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.636397785615916</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>0.2525</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0233386581469649</v>
+        <v>0.0043322386016901</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.112741088272803</v>
+        <v>-0.0065502728376941</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0639564805726599</v>
+        <v>0.0132223869630501</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.00597664426573</v>
+        <v>1.7157380600753</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1542,97 +1542,6 @@
         </is>
       </c>
       <c r="W12" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Whitebait Creek at Edinburgh Terrace</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.412482784417495</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.913793103448276</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2355</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0049689527414403</v>
-      </c>
-      <c r="L13" t="n">
-        <v>-0.0149476604935113</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.0147425158036466</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.10995870124854</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>1790056</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5517935</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Coastal Manawatu</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Mana_13a</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/trend_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="59">
   <si>
     <t>site name</t>
   </si>
@@ -121,34 +121,52 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Unlikely improving</t>
   </si>
   <si>
     <t>Horowhenua District</t>
@@ -530,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +642,13 @@
         <v>35</v>
       </c>
       <c r="F2">
-        <v>0.993518344364968</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.833333333333333</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -639,22 +657,22 @@
         <v>0.365</v>
       </c>
       <c r="K2">
-        <v>0.0406661295737444</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0152881391792108</v>
+        <v>-0.0232170368301566</v>
       </c>
       <c r="M2">
-        <v>0.0653063317257669</v>
+        <v>0.0265366200828527</v>
       </c>
       <c r="N2">
-        <v>11.1414053626697</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1790056</v>
@@ -663,19 +681,19 @@
         <v>5517935</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -692,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>0.643788875060667</v>
+        <v>0.412482784417495</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -710,22 +728,22 @@
         <v>8.279999999999999</v>
       </c>
       <c r="K3">
-        <v>0.153922804922506</v>
+        <v>-0.0674212127158557</v>
       </c>
       <c r="L3">
-        <v>-0.347680587409719</v>
+        <v>-0.429042801283531</v>
       </c>
       <c r="M3">
-        <v>0.359472331984342</v>
+        <v>0.353549056783134</v>
       </c>
       <c r="N3">
-        <v>1.8589710739433</v>
+        <v>-0.814265854056228</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1790056</v>
@@ -734,19 +752,19 @@
         <v>5517935</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -763,16 +781,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0449824875182887</v>
+        <v>0.0072200914984469</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.913793103448276</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -781,22 +799,22 @@
         <v>0.0785</v>
       </c>
       <c r="K4">
-        <v>0.005103395759259</v>
+        <v>0.0067731799450549</v>
       </c>
       <c r="L4">
-        <v>0.0001928836505708</v>
+        <v>0.002296028332043</v>
       </c>
       <c r="M4">
-        <v>0.0105515059183995</v>
+        <v>0.0114530472224887</v>
       </c>
       <c r="N4">
-        <v>6.50114109459755</v>
+        <v>8.628254707076371</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1790056</v>
@@ -805,19 +823,19 @@
         <v>5517935</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -834,40 +852,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.872963383828828</v>
+        <v>0.9983859423089561</v>
       </c>
       <c r="G5">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.896551724137931</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>262.5</v>
+        <v>213.4</v>
       </c>
       <c r="K5">
-        <v>-23.2150423728814</v>
+        <v>-53.0593350383632</v>
       </c>
       <c r="L5">
-        <v>-66.77519899374499</v>
+        <v>-83.57906768515021</v>
       </c>
       <c r="M5">
-        <v>10.6839047314617</v>
+        <v>-22.2264603906216</v>
       </c>
       <c r="N5">
-        <v>-8.84382566585956</v>
+        <v>-24.8637933638065</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1790056</v>
@@ -876,19 +894,19 @@
         <v>5517935</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -902,43 +920,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.939205768256117</v>
+        <v>0.994096423681867</v>
       </c>
       <c r="G6">
-        <v>0.0517241379310345</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H6">
-        <v>0.982758620689655</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0.126092739490036</v>
+        <v>0.11038711950701</v>
       </c>
       <c r="K6">
-        <v>-0.0196580376571521</v>
+        <v>-0.0244760705217008</v>
       </c>
       <c r="L6">
-        <v>-0.0435222417440898</v>
+        <v>-0.0440489535197125</v>
       </c>
       <c r="M6">
-        <v>-0.0028992497726925</v>
+        <v>-0.0072690176776476</v>
       </c>
       <c r="N6">
-        <v>-15.5901424115744</v>
+        <v>-22.1729406755164</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>1790056</v>
@@ -947,19 +965,19 @@
         <v>5517935</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -976,37 +994,37 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.971236564272545</v>
+        <v>0.99913832778912</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H7">
-        <v>0.741379310344828</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="K7">
-        <v>-0.004969387755102</v>
+        <v>-0.0076207153502235</v>
       </c>
       <c r="L7">
-        <v>-0.0104357142857143</v>
+        <v>-0.0115176919231627</v>
       </c>
       <c r="M7">
-        <v>-0.0006941016185985</v>
+        <v>-0.0035325848081664</v>
       </c>
       <c r="N7">
-        <v>-12.4234693877551</v>
+        <v>-22.4138686771281</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
         <v>42</v>
@@ -1018,19 +1036,19 @@
         <v>5517935</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1047,37 +1065,37 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>0.97269556738393</v>
+        <v>0.998446180432135</v>
       </c>
       <c r="G8">
-        <v>0.0172413793103448</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H8">
-        <v>0.931034482758621</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.608</v>
+        <v>0.469</v>
       </c>
       <c r="K8">
-        <v>-0.0430858093105525</v>
+        <v>-0.0696550480769231</v>
       </c>
       <c r="L8">
-        <v>-0.0749616218936508</v>
+        <v>-0.0894691227504722</v>
       </c>
       <c r="M8">
-        <v>-0.0111712340912962</v>
+        <v>-0.0350152576421028</v>
       </c>
       <c r="N8">
-        <v>-7.08648179449877</v>
+        <v>-14.8518226176808</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
         <v>42</v>
@@ -1089,19 +1107,19 @@
         <v>5517935</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1118,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>0.150355523574156</v>
+        <v>0.328690213555041</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1133,22 +1151,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.865</v>
+        <v>7.875</v>
       </c>
       <c r="K9">
-        <v>-0.0346520381594968</v>
+        <v>-0.0224609712270551</v>
       </c>
       <c r="L9">
-        <v>-0.0702891196900986</v>
+        <v>-0.09274435713204091</v>
       </c>
       <c r="M9">
-        <v>0.0129446718437319</v>
+        <v>0.0399455770445688</v>
       </c>
       <c r="N9">
-        <v>-0.44058535485692</v>
+        <v>-0.285218682248318</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -1160,16 +1178,16 @@
         <v>5517935</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1183,40 +1201,40 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>0.994068808034079</v>
+      </c>
+      <c r="G10">
+        <v>0.0517241379310345</v>
+      </c>
+      <c r="H10">
+        <v>0.827586206896552</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>0.980765377456021</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0.810344827586207</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
-        <v>0.88</v>
+        <v>0.715</v>
       </c>
       <c r="K10">
-        <v>-0.0822124361372456</v>
+        <v>-0.120191956124314</v>
       </c>
       <c r="L10">
-        <v>-0.146770709964562</v>
+        <v>-0.208154466638239</v>
       </c>
       <c r="M10">
-        <v>-0.0189083199152397</v>
+        <v>-0.0466937164656841</v>
       </c>
       <c r="N10">
-        <v>-9.342322288323359</v>
+        <v>-16.8100637936104</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
         <v>42</v>
@@ -1228,19 +1246,19 @@
         <v>5517935</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1254,40 +1272,40 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>0.976730209576497</v>
+        <v>0.9982781436122951</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.913793103448276</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="K11">
-        <v>-0.125474085193157</v>
+        <v>-0.157908834586466</v>
       </c>
       <c r="L11">
-        <v>-0.185906084152965</v>
+        <v>-0.251145291816566</v>
       </c>
       <c r="M11">
-        <v>-0.0242353145028697</v>
+        <v>-0.0766184037920534</v>
       </c>
       <c r="N11">
-        <v>-5.67756041597997</v>
+        <v>-7.51946831364125</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
         <v>42</v>
@@ -1299,19 +1317,19 @@
         <v>5517935</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1325,40 +1343,40 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>0.356211124939333</v>
+        <v>0.7697260231744359</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2525</v>
+        <v>0.237</v>
       </c>
       <c r="K12">
-        <v>0.0043322386016901</v>
+        <v>-0.0059934845559845</v>
       </c>
       <c r="L12">
-        <v>-0.0065502728376941</v>
+        <v>-0.0198215065421673</v>
       </c>
       <c r="M12">
-        <v>0.0132223869630501</v>
+        <v>0.0103681336736572</v>
       </c>
       <c r="N12">
-        <v>1.7157380600753</v>
+        <v>-2.52889643712429</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
         <v>44</v>
@@ -1370,19 +1388,655 @@
         <v>5517935</v>
       </c>
       <c r="S12" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>0.9202389803473729</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>8.19</v>
+      </c>
+      <c r="K13">
+        <v>0.132421853946462</v>
+      </c>
+      <c r="L13">
+        <v>-0.0174815344598901</v>
+      </c>
+      <c r="M13">
+        <v>0.22888626552429</v>
+      </c>
+      <c r="N13">
+        <v>1.61687245355876</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
         <v>45</v>
       </c>
-      <c r="T12" t="s">
+      <c r="Q13">
+        <v>1790056</v>
+      </c>
+      <c r="R13">
+        <v>5517935</v>
+      </c>
+      <c r="S13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0.06907956754167791</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.810526315789474</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.077</v>
+      </c>
+      <c r="K14">
+        <v>0.0027381037637061</v>
+      </c>
+      <c r="L14">
+        <v>-0.0001880063209036</v>
+      </c>
+      <c r="M14">
+        <v>0.0045177567841402</v>
+      </c>
+      <c r="N14">
+        <v>3.55597891390412</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
         <v>46</v>
       </c>
-      <c r="U12" t="s">
+      <c r="Q14">
+        <v>1790056</v>
+      </c>
+      <c r="R14">
+        <v>5517935</v>
+      </c>
+      <c r="S14" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" t="s">
+        <v>52</v>
+      </c>
+      <c r="U14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>0.999056570122053</v>
+      </c>
+      <c r="G15">
+        <v>0.08602150537634411</v>
+      </c>
+      <c r="H15">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.138696922535603</v>
+      </c>
+      <c r="K15">
+        <v>-0.0176321124212848</v>
+      </c>
+      <c r="L15">
+        <v>-0.0281597176430782</v>
+      </c>
+      <c r="M15">
+        <v>-0.007883072167653301</v>
+      </c>
+      <c r="N15">
+        <v>-12.712691888862</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15">
+        <v>1790056</v>
+      </c>
+      <c r="R15">
+        <v>5517935</v>
+      </c>
+      <c r="S15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>0.937098071968344</v>
+      </c>
+      <c r="G16">
+        <v>0.0315789473684211</v>
+      </c>
+      <c r="H16">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.033</v>
+      </c>
+      <c r="K16">
+        <v>-0.0018990467937608</v>
+      </c>
+      <c r="L16">
+        <v>-0.0038434281949331</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>-5.7546872538207</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
         <v>47</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Q16">
+        <v>1790056</v>
+      </c>
+      <c r="R16">
+        <v>5517935</v>
+      </c>
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>0.990550675634975</v>
+      </c>
+      <c r="G17">
+        <v>0.06315789473684209</v>
+      </c>
+      <c r="H17">
+        <v>0.884210526315789</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.495</v>
+      </c>
+      <c r="K17">
+        <v>-0.0245433550824176</v>
+      </c>
+      <c r="L17">
+        <v>-0.044431535754378</v>
+      </c>
+      <c r="M17">
+        <v>-0.0084923756171017</v>
+      </c>
+      <c r="N17">
+        <v>-4.95825355200355</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17">
+        <v>1790056</v>
+      </c>
+      <c r="R17">
+        <v>5517935</v>
+      </c>
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>0.0062357688338939</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.694736842105263</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.9</v>
+      </c>
+      <c r="K18">
+        <v>-0.0364156174736443</v>
+      </c>
+      <c r="L18">
+        <v>-0.0625495432683265</v>
+      </c>
+      <c r="M18">
+        <v>-0.0109960168349221</v>
+      </c>
+      <c r="N18">
+        <v>-0.460957183210687</v>
+      </c>
+      <c r="O18" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" t="s">
         <v>48</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Q18">
+        <v>1790056</v>
+      </c>
+      <c r="R18">
+        <v>5517935</v>
+      </c>
+      <c r="S18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>0.979740672426021</v>
+      </c>
+      <c r="G19">
+        <v>0.0315789473684211</v>
+      </c>
+      <c r="H19">
+        <v>0.726315789473684</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.82</v>
+      </c>
+      <c r="K19">
+        <v>-0.0494796798029557</v>
+      </c>
+      <c r="L19">
+        <v>-0.086977351598385</v>
+      </c>
+      <c r="M19">
+        <v>-0.0085774462287535</v>
+      </c>
+      <c r="N19">
+        <v>-6.03410729304337</v>
+      </c>
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19">
+        <v>1790056</v>
+      </c>
+      <c r="R19">
+        <v>5517935</v>
+      </c>
+      <c r="S19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U19" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>0.9218973526993079</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0.863157894736842</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2.16</v>
+      </c>
+      <c r="K20">
+        <v>-0.0401373626373626</v>
+      </c>
+      <c r="L20">
+        <v>-0.0783716904439944</v>
+      </c>
+      <c r="M20">
+        <v>0.0056803898818014</v>
+      </c>
+      <c r="N20">
+        <v>-1.85821123321123</v>
+      </c>
+      <c r="O20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20">
+        <v>1790056</v>
+      </c>
+      <c r="R20">
+        <v>5517935</v>
+      </c>
+      <c r="S20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>0.124055204224591</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.873684210526316</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.234</v>
+      </c>
+      <c r="K21">
+        <v>0.0063795054515964</v>
+      </c>
+      <c r="L21">
+        <v>-0.0019589790561713</v>
+      </c>
+      <c r="M21">
+        <v>0.0123133058707385</v>
+      </c>
+      <c r="N21">
+        <v>2.72628438102412</v>
+      </c>
+      <c r="O21" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" t="s">
         <v>50</v>
+      </c>
+      <c r="Q21">
+        <v>1790056</v>
+      </c>
+      <c r="R21">
+        <v>5517935</v>
+      </c>
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
